--- a/src/main/resources/ScenarioResults.xlsx
+++ b/src/main/resources/ScenarioResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="336">
   <si>
     <t>login-functionality;login-with-valid-username-and-password</t>
   </si>
@@ -1014,6 +1014,12 @@
   </si>
   <si>
     <t>2020-12-29 14_00_27</t>
+  </si>
+  <si>
+    <t>2020-12-29 14_42_56</t>
+  </si>
+  <si>
+    <t>2020-12-29 14_43_38</t>
   </si>
 </sst>
 </file>
@@ -1058,7 +1064,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D304"/>
+  <dimension ref="A1:D306"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -5320,6 +5326,34 @@
         <v>3</v>
       </c>
     </row>
+    <row r="305">
+      <c r="A305" t="s">
+        <v>0</v>
+      </c>
+      <c r="B305" t="s">
+        <v>1</v>
+      </c>
+      <c r="C305" t="s">
+        <v>334</v>
+      </c>
+      <c r="D305" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s">
+        <v>68</v>
+      </c>
+      <c r="B306" t="s">
+        <v>1</v>
+      </c>
+      <c r="C306" t="s">
+        <v>335</v>
+      </c>
+      <c r="D306" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
